--- a/biology/Histoire de la zoologie et de la botanique/Henri_Margot/Henri_Margot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Margot/Henri_Margot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Margot est un botaniste français né en 1807 et mort en 1894.
 Il a séjourné à Zante dans les îles Ioniennes de 1834 à 1837 comme précepteur des enfants du comte de Messala. Il fait paraître avec Georges François Reuter (1805-1872) un « Essai d’une Flore de l’île de Zante », paru dans les Mémoires de la Société de physique et d’histoire naturelle de Genève en 1838 par les soins de Augustin Pyrame de Candolle (1778-1841).
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Augustin-Pyramus de Candolle (2004), Mémoires et Souvenirs (1778-1841) édités par Jean-Daniel Candaux et Jean-Marc Drouin avec le concours de Patrick Bungener et René Sigrist. Georg Éditeur (Chêne-Bourg, Genève), collection Bibliothèque d’histoire des sciences : xv + 591 p.  (ISBN 2-8257-0832-1).</t>
         </is>
